--- a/Team-Data/2011-12/4-22-2011-12.xlsx
+++ b/Team-Data/2011-12/4-22-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,37 +733,37 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" t="n">
         <v>38</v>
       </c>
       <c r="F2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>0.594</v>
+        <v>0.603</v>
       </c>
       <c r="H2" t="n">
         <v>49</v>
       </c>
       <c r="I2" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J2" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="K2" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L2" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.369</v>
+        <v>0.364</v>
       </c>
       <c r="O2" t="n">
         <v>15.7</v>
@@ -705,22 +772,22 @@
         <v>21.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.739</v>
+        <v>0.74</v>
       </c>
       <c r="R2" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S2" t="n">
         <v>31.3</v>
       </c>
       <c r="T2" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U2" t="n">
         <v>22.3</v>
       </c>
       <c r="V2" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W2" t="n">
         <v>8.1</v>
@@ -738,19 +805,19 @@
         <v>19.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.3</v>
+        <v>96</v>
       </c>
       <c r="AC2" t="n">
         <v>3.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
         <v>9</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG2" t="n">
         <v>9</v>
@@ -765,22 +832,22 @@
         <v>19</v>
       </c>
       <c r="AK2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
         <v>23</v>
@@ -789,16 +856,16 @@
         <v>28</v>
       </c>
       <c r="AS2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT2" t="n">
         <v>23</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW2" t="n">
         <v>10</v>
@@ -807,7 +874,7 @@
         <v>23</v>
       </c>
       <c r="AY2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ2" t="n">
         <v>6</v>
@@ -816,7 +883,7 @@
         <v>19</v>
       </c>
       <c r="BB2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC2" t="n">
         <v>7</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-22-2011-12</t>
+          <t>2012-04-22</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>2.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>10</v>
@@ -938,7 +1005,7 @@
         <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
         <v>23</v>
@@ -950,13 +1017,13 @@
         <v>5</v>
       </c>
       <c r="AL3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM3" t="n">
         <v>24</v>
       </c>
       <c r="AN3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO3" t="n">
         <v>23</v>
@@ -992,16 +1059,16 @@
         <v>9</v>
       </c>
       <c r="AZ3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BB3" t="n">
         <v>26</v>
       </c>
       <c r="BC3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-22-2011-12</t>
+          <t>2012-04-22</t>
         </is>
       </c>
     </row>
@@ -1030,49 +1097,49 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" t="n">
-        <v>0.111</v>
+        <v>0.113</v>
       </c>
       <c r="H4" t="n">
         <v>48.2</v>
       </c>
       <c r="I4" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="J4" t="n">
-        <v>80.59999999999999</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.415</v>
+        <v>0.414</v>
       </c>
       <c r="L4" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
         <v>13.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.294</v>
+        <v>0.297</v>
       </c>
       <c r="O4" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="P4" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.745</v>
+        <v>0.747</v>
       </c>
       <c r="R4" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S4" t="n">
         <v>28.7</v>
@@ -1081,10 +1148,10 @@
         <v>39</v>
       </c>
       <c r="U4" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="V4" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W4" t="n">
         <v>6.1</v>
@@ -1105,10 +1172,10 @@
         <v>87.09999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-13.7</v>
+        <v>-13.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1132,7 +1199,7 @@
         <v>30</v>
       </c>
       <c r="AL4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM4" t="n">
         <v>27</v>
@@ -1144,13 +1211,13 @@
         <v>17</v>
       </c>
       <c r="AP4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ4" t="n">
         <v>19</v>
       </c>
       <c r="AR4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS4" t="n">
         <v>28</v>
@@ -1159,7 +1226,7 @@
         <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AV4" t="n">
         <v>13</v>
@@ -1174,7 +1241,7 @@
         <v>26</v>
       </c>
       <c r="AZ4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-22-2011-12</t>
+          <t>2012-04-22</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>7.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
         <v>1</v>
@@ -1302,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
         <v>12</v>
@@ -1347,7 +1414,7 @@
         <v>10</v>
       </c>
       <c r="AW5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX5" t="n">
         <v>3</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-22-2011-12</t>
+          <t>2012-04-22</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" t="n">
         <v>21</v>
       </c>
       <c r="F6" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" t="n">
-        <v>0.333</v>
+        <v>0.339</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
@@ -1412,7 +1479,7 @@
         <v>34.3</v>
       </c>
       <c r="J6" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K6" t="n">
         <v>0.423</v>
@@ -1424,34 +1491,34 @@
         <v>19.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.347</v>
+        <v>0.349</v>
       </c>
       <c r="O6" t="n">
         <v>18</v>
       </c>
       <c r="P6" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.717</v>
+        <v>0.718</v>
       </c>
       <c r="R6" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="S6" t="n">
         <v>29.7</v>
       </c>
       <c r="T6" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U6" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V6" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W6" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X6" t="n">
         <v>4</v>
@@ -1463,28 +1530,28 @@
         <v>20.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>-6.7</v>
+        <v>-6.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE6" t="n">
         <v>26</v>
       </c>
       <c r="AF6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG6" t="n">
         <v>26</v>
       </c>
       <c r="AH6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI6" t="n">
         <v>29</v>
@@ -1502,7 +1569,7 @@
         <v>17</v>
       </c>
       <c r="AN6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO6" t="n">
         <v>9</v>
@@ -1523,7 +1590,7 @@
         <v>13</v>
       </c>
       <c r="AU6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AV6" t="n">
         <v>26</v>
@@ -1538,13 +1605,13 @@
         <v>28</v>
       </c>
       <c r="AZ6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA6" t="n">
         <v>6</v>
       </c>
       <c r="BB6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC6" t="n">
         <v>29</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-22-2011-12</t>
+          <t>2012-04-22</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1733,7 @@
         <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI7" t="n">
         <v>18</v>
@@ -1687,7 +1754,7 @@
         <v>19</v>
       </c>
       <c r="AO7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP7" t="n">
         <v>26</v>
@@ -1699,7 +1766,7 @@
         <v>27</v>
       </c>
       <c r="AS7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>10</v>
@@ -1729,7 +1796,7 @@
         <v>19</v>
       </c>
       <c r="BC7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-22-2011-12</t>
+          <t>2012-04-22</t>
         </is>
       </c>
     </row>
@@ -1758,28 +1825,28 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" t="n">
         <v>28</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.556</v>
       </c>
       <c r="H8" t="n">
         <v>48.6</v>
       </c>
       <c r="I8" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J8" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K8" t="n">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="L8" t="n">
         <v>6.6</v>
@@ -1791,10 +1858,10 @@
         <v>0.33</v>
       </c>
       <c r="O8" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="P8" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="Q8" t="n">
         <v>0.737</v>
@@ -1809,7 +1876,7 @@
         <v>43</v>
       </c>
       <c r="U8" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="V8" t="n">
         <v>15.4</v>
@@ -1821,34 +1888,34 @@
         <v>5</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Z8" t="n">
         <v>19.6</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AB8" t="n">
         <v>103.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AD8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH8" t="n">
         <v>5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>6</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1857,13 +1924,13 @@
         <v>15</v>
       </c>
       <c r="AK8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL8" t="n">
         <v>16</v>
       </c>
       <c r="AM8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AN8" t="n">
         <v>24</v>
@@ -1893,7 +1960,7 @@
         <v>25</v>
       </c>
       <c r="AW8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX8" t="n">
         <v>15</v>
@@ -1902,7 +1969,7 @@
         <v>30</v>
       </c>
       <c r="AZ8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1911,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-22-2011-12</t>
+          <t>2012-04-22</t>
         </is>
       </c>
     </row>
@@ -1940,58 +2007,58 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" t="n">
         <v>40</v>
       </c>
       <c r="G9" t="n">
-        <v>0.375</v>
+        <v>0.365</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="J9" t="n">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="K9" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L9" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="M9" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.34</v>
+        <v>0.343</v>
       </c>
       <c r="O9" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P9" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.754</v>
+        <v>0.757</v>
       </c>
       <c r="R9" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S9" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="T9" t="n">
         <v>40.2</v>
       </c>
       <c r="U9" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="V9" t="n">
         <v>15.7</v>
@@ -2003,22 +2070,22 @@
         <v>4.1</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>90.5</v>
+        <v>90.7</v>
       </c>
       <c r="AC9" t="n">
-        <v>-5.2</v>
+        <v>-5.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
         <v>22</v>
@@ -2030,13 +2097,13 @@
         <v>22</v>
       </c>
       <c r="AH9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI9" t="n">
         <v>25</v>
       </c>
       <c r="AJ9" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AK9" t="n">
         <v>25</v>
@@ -2048,19 +2115,19 @@
         <v>26</v>
       </c>
       <c r="AN9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO9" t="n">
         <v>14</v>
       </c>
       <c r="AP9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS9" t="n">
         <v>30</v>
@@ -2084,10 +2151,10 @@
         <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-22-2011-12</t>
+          <t>2012-04-22</t>
         </is>
       </c>
     </row>
@@ -2122,25 +2189,25 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" t="n">
         <v>41</v>
       </c>
       <c r="G10" t="n">
-        <v>0.359</v>
+        <v>0.349</v>
       </c>
       <c r="H10" t="n">
         <v>48.2</v>
       </c>
       <c r="I10" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J10" t="n">
-        <v>82.5</v>
+        <v>82.3</v>
       </c>
       <c r="K10" t="n">
         <v>0.457</v>
@@ -2152,55 +2219,55 @@
         <v>20.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.388</v>
+        <v>0.389</v>
       </c>
       <c r="O10" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="P10" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.771</v>
+        <v>0.773</v>
       </c>
       <c r="R10" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="S10" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T10" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="U10" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V10" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X10" t="n">
         <v>5.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA10" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.4</v>
+        <v>-3.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2212,16 +2279,16 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
         <v>7</v>
       </c>
       <c r="AJ10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK10" t="n">
         <v>9</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>8</v>
       </c>
       <c r="AL10" t="n">
         <v>3</v>
@@ -2239,31 +2306,31 @@
         <v>29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AR10" t="n">
         <v>29</v>
       </c>
       <c r="AS10" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AT10" t="n">
         <v>28</v>
       </c>
       <c r="AU10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX10" t="n">
         <v>6</v>
       </c>
       <c r="AY10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ10" t="n">
         <v>27</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-22-2011-12</t>
+          <t>2012-04-22</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" t="n">
         <v>33</v>
       </c>
       <c r="F11" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" t="n">
-        <v>0.508</v>
+        <v>0.516</v>
       </c>
       <c r="H11" t="n">
         <v>48.7</v>
@@ -2322,7 +2389,7 @@
         <v>37.8</v>
       </c>
       <c r="J11" t="n">
-        <v>83.90000000000001</v>
+        <v>84</v>
       </c>
       <c r="K11" t="n">
         <v>0.451</v>
@@ -2337,16 +2404,16 @@
         <v>0.36</v>
       </c>
       <c r="O11" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="P11" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="Q11" t="n">
         <v>0.782</v>
       </c>
       <c r="R11" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S11" t="n">
         <v>30.4</v>
@@ -2367,7 +2434,7 @@
         <v>4.8</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z11" t="n">
         <v>20.4</v>
@@ -2376,22 +2443,22 @@
         <v>18.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.3</v>
+        <v>98.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH11" t="n">
         <v>3</v>
@@ -2409,13 +2476,13 @@
         <v>10</v>
       </c>
       <c r="AM11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN11" t="n">
         <v>10</v>
       </c>
       <c r="AO11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP11" t="n">
         <v>28</v>
@@ -2430,16 +2497,16 @@
         <v>18</v>
       </c>
       <c r="AT11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU11" t="n">
         <v>12</v>
       </c>
       <c r="AV11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX11" t="n">
         <v>19</v>
@@ -2454,7 +2521,7 @@
         <v>25</v>
       </c>
       <c r="BB11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BC11" t="n">
         <v>18</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-22-2011-12</t>
+          <t>2012-04-22</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>3.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>5</v>
@@ -2609,7 +2676,7 @@
         <v>7</v>
       </c>
       <c r="AS12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT12" t="n">
         <v>5</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-22-2011-12</t>
+          <t>2012-04-22</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" t="n">
         <v>24</v>
       </c>
       <c r="G13" t="n">
-        <v>0.625</v>
+        <v>0.619</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
@@ -2686,28 +2753,28 @@
         <v>37</v>
       </c>
       <c r="J13" t="n">
-        <v>81.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L13" t="n">
         <v>7.7</v>
       </c>
       <c r="M13" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="N13" t="n">
-        <v>0.354</v>
+        <v>0.356</v>
       </c>
       <c r="O13" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="P13" t="n">
-        <v>23.3</v>
+        <v>23</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.679</v>
       </c>
       <c r="R13" t="n">
         <v>12.2</v>
@@ -2719,13 +2786,13 @@
         <v>41.7</v>
       </c>
       <c r="U13" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V13" t="n">
         <v>13.3</v>
       </c>
       <c r="W13" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X13" t="n">
         <v>4.8</v>
@@ -2734,19 +2801,19 @@
         <v>4.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.5</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2758,7 +2825,7 @@
         <v>7</v>
       </c>
       <c r="AH13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>13</v>
@@ -2770,19 +2837,19 @@
         <v>10</v>
       </c>
       <c r="AL13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM13" t="n">
         <v>5</v>
       </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ13" t="n">
         <v>29</v>
@@ -2794,7 +2861,7 @@
         <v>24</v>
       </c>
       <c r="AT13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU13" t="n">
         <v>13</v>
@@ -2809,10 +2876,10 @@
         <v>20</v>
       </c>
       <c r="AY13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA13" t="n">
         <v>5</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-22-2011-12</t>
+          <t>2012-04-22</t>
         </is>
       </c>
     </row>
@@ -2850,28 +2917,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" t="n">
         <v>24</v>
       </c>
       <c r="G14" t="n">
-        <v>0.631</v>
+        <v>0.625</v>
       </c>
       <c r="H14" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="I14" t="n">
         <v>36.7</v>
       </c>
       <c r="J14" t="n">
-        <v>80.40000000000001</v>
+        <v>80</v>
       </c>
       <c r="K14" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L14" t="n">
         <v>5.5</v>
@@ -2883,22 +2950,22 @@
         <v>0.324</v>
       </c>
       <c r="O14" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="P14" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.756</v>
+        <v>0.758</v>
       </c>
       <c r="R14" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="S14" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="T14" t="n">
-        <v>46.3</v>
+        <v>46</v>
       </c>
       <c r="U14" t="n">
         <v>22.4</v>
@@ -2907,13 +2974,13 @@
         <v>15.1</v>
       </c>
       <c r="W14" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="X14" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z14" t="n">
         <v>16.8</v>
@@ -2922,16 +2989,16 @@
         <v>20.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>97.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2940,7 +3007,7 @@
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AI14" t="n">
         <v>15</v>
@@ -2949,7 +3016,7 @@
         <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AL14" t="n">
         <v>23</v>
@@ -2967,10 +3034,10 @@
         <v>9</v>
       </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -2991,7 +3058,7 @@
         <v>11</v>
       </c>
       <c r="AY14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AZ14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-22-2011-12</t>
+          <t>2012-04-22</t>
         </is>
       </c>
     </row>
@@ -3110,10 +3177,10 @@
         <v>1.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF15" t="n">
         <v>8</v>
@@ -3122,13 +3189,13 @@
         <v>8</v>
       </c>
       <c r="AH15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI15" t="n">
         <v>14</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK15" t="n">
         <v>16</v>
@@ -3143,28 +3210,28 @@
         <v>25</v>
       </c>
       <c r="AO15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP15" t="n">
         <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR15" t="n">
         <v>5</v>
       </c>
       <c r="AS15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU15" t="n">
         <v>24</v>
       </c>
       <c r="AV15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-22-2011-12</t>
+          <t>2012-04-22</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" t="n">
         <v>18</v>
       </c>
       <c r="G16" t="n">
-        <v>0.719</v>
+        <v>0.714</v>
       </c>
       <c r="H16" t="n">
         <v>48.6</v>
@@ -3232,10 +3299,10 @@
         <v>37.4</v>
       </c>
       <c r="J16" t="n">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.472</v>
+        <v>0.473</v>
       </c>
       <c r="L16" t="n">
         <v>5.6</v>
@@ -3244,7 +3311,7 @@
         <v>15.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O16" t="n">
         <v>19</v>
@@ -3253,19 +3320,19 @@
         <v>24.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.776</v>
+        <v>0.774</v>
       </c>
       <c r="R16" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S16" t="n">
         <v>31.3</v>
       </c>
       <c r="T16" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U16" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="V16" t="n">
         <v>14.9</v>
@@ -3274,46 +3341,46 @@
         <v>8.9</v>
       </c>
       <c r="X16" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y16" t="n">
         <v>4.2</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA16" t="n">
         <v>20.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="AC16" t="n">
         <v>6.9</v>
       </c>
       <c r="AD16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH16" t="n">
         <v>5</v>
       </c>
-      <c r="AE16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>6</v>
-      </c>
       <c r="AI16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL16" t="n">
         <v>20</v>
@@ -3325,13 +3392,13 @@
         <v>9</v>
       </c>
       <c r="AO16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP16" t="n">
         <v>8</v>
       </c>
       <c r="AQ16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR16" t="n">
         <v>24</v>
@@ -3340,10 +3407,10 @@
         <v>12</v>
       </c>
       <c r="AT16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AU16" t="n">
         <v>18</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>19</v>
       </c>
       <c r="AV16" t="n">
         <v>18</v>
@@ -3358,10 +3425,10 @@
         <v>3</v>
       </c>
       <c r="AZ16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB16" t="n">
         <v>6</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-22-2011-12</t>
+          <t>2012-04-22</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>0.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
@@ -3519,7 +3586,7 @@
         <v>6</v>
       </c>
       <c r="AS17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT17" t="n">
         <v>14</v>
@@ -3537,13 +3604,13 @@
         <v>16</v>
       </c>
       <c r="AY17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB17" t="n">
         <v>4</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-22-2011-12</t>
+          <t>2012-04-22</t>
         </is>
       </c>
     </row>
@@ -3578,37 +3645,37 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" t="n">
         <v>26</v>
       </c>
       <c r="F18" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4</v>
+        <v>0.406</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
       </c>
       <c r="I18" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="J18" t="n">
         <v>82.2</v>
       </c>
       <c r="K18" t="n">
-        <v>0.433</v>
+        <v>0.434</v>
       </c>
       <c r="L18" t="n">
         <v>7.1</v>
       </c>
       <c r="M18" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="N18" t="n">
-        <v>0.332</v>
+        <v>0.333</v>
       </c>
       <c r="O18" t="n">
         <v>19.5</v>
@@ -3617,16 +3684,16 @@
         <v>25.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.772</v>
+        <v>0.769</v>
       </c>
       <c r="R18" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S18" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T18" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="U18" t="n">
         <v>19.5</v>
@@ -3635,7 +3702,7 @@
         <v>15.2</v>
       </c>
       <c r="W18" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X18" t="n">
         <v>4.4</v>
@@ -3644,19 +3711,19 @@
         <v>5.7</v>
       </c>
       <c r="Z18" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1.8</v>
+        <v>-1.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE18" t="n">
         <v>21</v>
@@ -3668,16 +3735,16 @@
         <v>21</v>
       </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ18" t="n">
         <v>12</v>
       </c>
       <c r="AK18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL18" t="n">
         <v>11</v>
@@ -3686,7 +3753,7 @@
         <v>6</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO18" t="n">
         <v>4</v>
@@ -3695,7 +3762,7 @@
         <v>4</v>
       </c>
       <c r="AQ18" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AR18" t="n">
         <v>9</v>
@@ -3704,19 +3771,19 @@
         <v>8</v>
       </c>
       <c r="AT18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU18" t="n">
         <v>25</v>
       </c>
       <c r="AV18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW18" t="n">
         <v>26</v>
       </c>
       <c r="AX18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY18" t="n">
         <v>23</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-22-2011-12</t>
+          <t>2012-04-22</t>
         </is>
       </c>
     </row>
@@ -3838,16 +3905,16 @@
         <v>-5.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF19" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AG19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH19" t="n">
         <v>27</v>
@@ -3862,13 +3929,13 @@
         <v>28</v>
       </c>
       <c r="AL19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM19" t="n">
         <v>3</v>
       </c>
       <c r="AN19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO19" t="n">
         <v>13</v>
@@ -3877,10 +3944,10 @@
         <v>16</v>
       </c>
       <c r="AQ19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS19" t="n">
         <v>29</v>
@@ -3892,10 +3959,10 @@
         <v>22</v>
       </c>
       <c r="AV19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX19" t="n">
         <v>29</v>
@@ -3907,7 +3974,7 @@
         <v>12</v>
       </c>
       <c r="BA19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB19" t="n">
         <v>23</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-22-2011-12</t>
+          <t>2012-04-22</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" t="n">
         <v>20</v>
       </c>
       <c r="F20" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" t="n">
-        <v>0.313</v>
+        <v>0.317</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3960,34 +4027,34 @@
         <v>35</v>
       </c>
       <c r="J20" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="K20" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L20" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
         <v>11.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.333</v>
+        <v>0.334</v>
       </c>
       <c r="O20" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="P20" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="R20" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S20" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T20" t="n">
         <v>41.1</v>
@@ -4008,31 +4075,31 @@
         <v>5.8</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>89.90000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.8</v>
+        <v>-3.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4041,16 +4108,16 @@
         <v>29</v>
       </c>
       <c r="AK20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM20" t="n">
         <v>30</v>
       </c>
       <c r="AN20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO20" t="n">
         <v>20</v>
@@ -4083,13 +4150,13 @@
         <v>22</v>
       </c>
       <c r="AY20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA20" t="n">
         <v>24</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>23</v>
       </c>
       <c r="BB20" t="n">
         <v>29</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-22-2011-12</t>
+          <t>2012-04-22</t>
         </is>
       </c>
     </row>
@@ -4124,55 +4191,55 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" t="n">
         <v>30</v>
       </c>
       <c r="G21" t="n">
-        <v>0.531</v>
+        <v>0.524</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J21" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.442</v>
+        <v>0.44</v>
       </c>
       <c r="L21" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M21" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="N21" t="n">
-        <v>0.335</v>
+        <v>0.331</v>
       </c>
       <c r="O21" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P21" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="Q21" t="n">
         <v>0.743</v>
       </c>
       <c r="R21" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S21" t="n">
         <v>30.5</v>
       </c>
       <c r="T21" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U21" t="n">
         <v>20</v>
@@ -4181,7 +4248,7 @@
         <v>16.2</v>
       </c>
       <c r="W21" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="X21" t="n">
         <v>4.2</v>
@@ -4196,43 +4263,43 @@
         <v>21.9</v>
       </c>
       <c r="AB21" t="n">
-        <v>97.7</v>
+        <v>97.5</v>
       </c>
       <c r="AC21" t="n">
         <v>2.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
         <v>14</v>
       </c>
       <c r="AG21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI21" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ21" t="n">
         <v>20</v>
       </c>
       <c r="AK21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM21" t="n">
         <v>2</v>
       </c>
       <c r="AN21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO21" t="n">
         <v>7</v>
@@ -4250,7 +4317,7 @@
         <v>17</v>
       </c>
       <c r="AT21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU21" t="n">
         <v>23</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-22-2011-12</t>
+          <t>2012-04-22</t>
         </is>
       </c>
     </row>
@@ -4306,70 +4373,70 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" t="n">
         <v>46</v>
       </c>
       <c r="F22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" t="n">
-        <v>0.719</v>
+        <v>0.73</v>
       </c>
       <c r="H22" t="n">
-        <v>48.5</v>
+        <v>48.3</v>
       </c>
       <c r="I22" t="n">
         <v>37.3</v>
       </c>
       <c r="J22" t="n">
-        <v>79.2</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.471</v>
+        <v>0.473</v>
       </c>
       <c r="L22" t="n">
         <v>7.1</v>
       </c>
       <c r="M22" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="N22" t="n">
         <v>0.356</v>
       </c>
       <c r="O22" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="P22" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.803</v>
+        <v>0.802</v>
       </c>
       <c r="R22" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S22" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="T22" t="n">
-        <v>43.8</v>
+        <v>43.6</v>
       </c>
       <c r="U22" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="V22" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="W22" t="n">
         <v>7.6</v>
       </c>
       <c r="X22" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z22" t="n">
         <v>20.3</v>
@@ -4378,16 +4445,16 @@
         <v>20</v>
       </c>
       <c r="AB22" t="n">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF22" t="n">
         <v>3</v>
@@ -4396,25 +4463,25 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AI22" t="n">
         <v>11</v>
       </c>
       <c r="AJ22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL22" t="n">
         <v>12</v>
       </c>
       <c r="AM22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4429,7 +4496,7 @@
         <v>20</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT22" t="n">
         <v>6</v>
@@ -4447,7 +4514,7 @@
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ22" t="n">
         <v>22</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-22-2011-12</t>
+          <t>2012-04-22</t>
         </is>
       </c>
     </row>
@@ -4488,55 +4555,55 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" t="n">
         <v>36</v>
       </c>
       <c r="F23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="H23" t="n">
         <v>48.4</v>
       </c>
       <c r="I23" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="J23" t="n">
-        <v>78.2</v>
+        <v>78.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L23" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="M23" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="N23" t="n">
-        <v>0.377</v>
+        <v>0.379</v>
       </c>
       <c r="O23" t="n">
         <v>15.1</v>
       </c>
       <c r="P23" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.658</v>
+        <v>0.657</v>
       </c>
       <c r="R23" t="n">
         <v>11.2</v>
       </c>
       <c r="S23" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T23" t="n">
-        <v>42.5</v>
+        <v>42.7</v>
       </c>
       <c r="U23" t="n">
         <v>20.1</v>
@@ -4548,7 +4615,7 @@
         <v>6.8</v>
       </c>
       <c r="X23" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y23" t="n">
         <v>4.1</v>
@@ -4560,28 +4627,28 @@
         <v>19.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.3</v>
+        <v>94.7</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
         <v>11</v>
       </c>
       <c r="AF23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG23" t="n">
         <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ23" t="n">
         <v>27</v>
@@ -4611,16 +4678,16 @@
         <v>16</v>
       </c>
       <c r="AS23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AV23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW23" t="n">
         <v>25</v>
@@ -4641,7 +4708,7 @@
         <v>21</v>
       </c>
       <c r="BC23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-22-2011-12</t>
+          <t>2012-04-22</t>
         </is>
       </c>
     </row>
@@ -4748,16 +4815,16 @@
         <v>4.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF24" t="n">
         <v>14</v>
       </c>
       <c r="AG24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH24" t="n">
         <v>23</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-22-2011-12</t>
+          <t>2012-04-22</t>
         </is>
       </c>
     </row>
@@ -4930,10 +4997,10 @@
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
         <v>17</v>
@@ -4963,13 +5030,13 @@
         <v>16</v>
       </c>
       <c r="AO25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR25" t="n">
         <v>21</v>
@@ -4978,7 +5045,7 @@
         <v>16</v>
       </c>
       <c r="AT25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU25" t="n">
         <v>6</v>
@@ -5002,7 +5069,7 @@
         <v>15</v>
       </c>
       <c r="BB25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC25" t="n">
         <v>19</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-22-2011-12</t>
+          <t>2012-04-22</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-0.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="n">
         <v>20</v>
@@ -5124,7 +5191,7 @@
         <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AI26" t="n">
         <v>17</v>
@@ -5136,13 +5203,13 @@
         <v>18</v>
       </c>
       <c r="AL26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM26" t="n">
         <v>8</v>
       </c>
       <c r="AN26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO26" t="n">
         <v>10</v>
@@ -5178,10 +5245,10 @@
         <v>10</v>
       </c>
       <c r="AZ26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB26" t="n">
         <v>15</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-22-2011-12</t>
+          <t>2012-04-22</t>
         </is>
       </c>
     </row>
@@ -5216,34 +5283,34 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F27" t="n">
         <v>43</v>
       </c>
       <c r="G27" t="n">
-        <v>0.328</v>
+        <v>0.317</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
       </c>
       <c r="I27" t="n">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
       <c r="J27" t="n">
         <v>86.5</v>
       </c>
       <c r="K27" t="n">
-        <v>0.433</v>
+        <v>0.431</v>
       </c>
       <c r="L27" t="n">
         <v>6.3</v>
       </c>
       <c r="M27" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="N27" t="n">
         <v>0.316</v>
@@ -5252,7 +5319,7 @@
         <v>17.1</v>
       </c>
       <c r="P27" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q27" t="n">
         <v>0.736</v>
@@ -5264,16 +5331,16 @@
         <v>29.5</v>
       </c>
       <c r="T27" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U27" t="n">
         <v>19.2</v>
       </c>
       <c r="V27" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W27" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X27" t="n">
         <v>4.8</v>
@@ -5282,22 +5349,22 @@
         <v>6.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA27" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.40000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>-6</v>
+        <v>-6.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF27" t="n">
         <v>27</v>
@@ -5306,31 +5373,31 @@
         <v>27</v>
       </c>
       <c r="AH27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI27" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ27" t="n">
         <v>1</v>
       </c>
       <c r="AK27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL27" t="n">
         <v>18</v>
       </c>
       <c r="AM27" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AN27" t="n">
         <v>29</v>
       </c>
       <c r="AO27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ27" t="n">
         <v>25</v>
@@ -5342,7 +5409,7 @@
         <v>25</v>
       </c>
       <c r="AT27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU27" t="n">
         <v>26</v>
@@ -5354,22 +5421,22 @@
         <v>5</v>
       </c>
       <c r="AX27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY27" t="n">
         <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-22-2011-12</t>
+          <t>2012-04-22</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E28" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.746</v>
+        <v>0.742</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="J28" t="n">
-        <v>82.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.477</v>
+        <v>0.476</v>
       </c>
       <c r="L28" t="n">
         <v>8.300000000000001</v>
@@ -5431,19 +5498,19 @@
         <v>0.393</v>
       </c>
       <c r="O28" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="P28" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.745</v>
+        <v>0.744</v>
       </c>
       <c r="R28" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S28" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T28" t="n">
         <v>42.7</v>
@@ -5464,19 +5531,19 @@
         <v>5</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="AA28" t="n">
         <v>19</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.2</v>
+        <v>103</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5488,7 +5555,7 @@
         <v>2</v>
       </c>
       <c r="AH28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
@@ -5509,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP28" t="n">
         <v>18</v>
@@ -5518,13 +5585,13 @@
         <v>20</v>
       </c>
       <c r="AR28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS28" t="n">
         <v>6</v>
       </c>
       <c r="AT28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU28" t="n">
         <v>5</v>
@@ -5536,10 +5603,10 @@
         <v>19</v>
       </c>
       <c r="AX28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-22-2011-12</t>
+          <t>2012-04-22</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E29" t="n">
         <v>22</v>
       </c>
       <c r="F29" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G29" t="n">
-        <v>0.344</v>
+        <v>0.349</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="J29" t="n">
         <v>78</v>
       </c>
       <c r="K29" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L29" t="n">
         <v>5.5</v>
@@ -5613,13 +5680,13 @@
         <v>0.337</v>
       </c>
       <c r="O29" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P29" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R29" t="n">
         <v>10.5</v>
@@ -5634,7 +5701,7 @@
         <v>20.9</v>
       </c>
       <c r="V29" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W29" t="n">
         <v>6.5</v>
@@ -5649,28 +5716,28 @@
         <v>23.3</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AB29" t="n">
-        <v>90.7</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="AC29" t="n">
         <v>-3.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI29" t="n">
         <v>28</v>
@@ -5679,7 +5746,7 @@
         <v>28</v>
       </c>
       <c r="AK29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL29" t="n">
         <v>21</v>
@@ -5691,13 +5758,13 @@
         <v>20</v>
       </c>
       <c r="AO29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP29" t="n">
         <v>19</v>
       </c>
       <c r="AQ29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR29" t="n">
         <v>23</v>
@@ -5721,19 +5788,19 @@
         <v>18</v>
       </c>
       <c r="AY29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BB29" t="n">
         <v>27</v>
       </c>
       <c r="BC29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-22-2011-12</t>
+          <t>2012-04-22</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>0.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>14</v>
@@ -5852,7 +5919,7 @@
         <v>14</v>
       </c>
       <c r="AH30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI30" t="n">
         <v>3</v>
@@ -5861,7 +5928,7 @@
         <v>4</v>
       </c>
       <c r="AK30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL30" t="n">
         <v>28</v>
@@ -5879,7 +5946,7 @@
         <v>5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR30" t="n">
         <v>3</v>
@@ -5888,7 +5955,7 @@
         <v>15</v>
       </c>
       <c r="AT30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU30" t="n">
         <v>11</v>
@@ -5897,7 +5964,7 @@
         <v>12</v>
       </c>
       <c r="AW30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX30" t="n">
         <v>4</v>
@@ -5909,7 +5976,7 @@
         <v>29</v>
       </c>
       <c r="BA30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB30" t="n">
         <v>5</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-22-2011-12</t>
+          <t>2012-04-22</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6064,7 +6131,7 @@
         <v>26</v>
       </c>
       <c r="AR31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS31" t="n">
         <v>20</v>
@@ -6076,7 +6143,7 @@
         <v>27</v>
       </c>
       <c r="AV31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW31" t="n">
         <v>15</v>
@@ -6088,7 +6155,7 @@
         <v>8</v>
       </c>
       <c r="AZ31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA31" t="n">
         <v>22</v>
@@ -6097,7 +6164,7 @@
         <v>24</v>
       </c>
       <c r="BC31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-22-2011-12</t>
+          <t>2012-04-22</t>
         </is>
       </c>
     </row>
